--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>ЛБ-01</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">Алина Анна Владимировна</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>2</t>
@@ -244,7 +247,7 @@
   <fonts count="3">
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -257,7 +260,6 @@
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -304,13 +306,14 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -927,7 +930,9 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -948,10 +953,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -974,10 +979,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1000,12 +1005,14 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1026,10 +1033,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1052,12 +1059,14 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1078,12 +1087,14 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1104,10 +1115,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1130,12 +1141,14 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1156,12 +1169,14 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1182,12 +1197,14 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1208,12 +1225,14 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1234,12 +1253,14 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1260,12 +1281,14 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1286,10 +1309,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1312,10 +1335,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1338,12 +1361,14 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1364,10 +1389,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1390,12 +1415,14 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1416,12 +1443,14 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1442,12 +1471,14 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1468,10 +1499,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1494,10 +1525,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1520,10 +1551,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1546,12 +1577,14 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -13,11 +13,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>ЛБ-01</t>
   </si>
   <si>
+    <t>отчет</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -31,6 +34,12 @@
   </si>
   <si>
     <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Столбец22</t>
+  </si>
+  <si>
+    <t>Столбец21</t>
   </si>
   <si>
     <t>Столбец4</t>
@@ -306,13 +315,17 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -331,29 +344,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="$A$3:$T$28">
-  <autoFilter ref="$A$3:$T$28"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="$A$3:$V$28">
+  <autoFilter ref="$A$3:$V$28"/>
+  <tableColumns count="22">
     <tableColumn id="1" name="Столбец1"/>
     <tableColumn id="2" name="Столбец2"/>
     <tableColumn id="3" name="Столбец3"/>
-    <tableColumn id="4" name="Столбец4"/>
-    <tableColumn id="5" name="Столбец5"/>
-    <tableColumn id="6" name="Столбец6"/>
-    <tableColumn id="7" name="Столбец7"/>
-    <tableColumn id="8" name="Столбец8"/>
-    <tableColumn id="9" name="Столбец9"/>
-    <tableColumn id="10" name="Столбец10"/>
-    <tableColumn id="11" name="Столбец11"/>
-    <tableColumn id="12" name="Столбец12"/>
-    <tableColumn id="13" name="Столбец13"/>
-    <tableColumn id="14" name="Столбец14"/>
-    <tableColumn id="15" name="Столбец15"/>
-    <tableColumn id="16" name="Столбец16"/>
-    <tableColumn id="17" name="Столбец17"/>
-    <tableColumn id="18" name="Столбец18"/>
-    <tableColumn id="19" name="Столбец19"/>
-    <tableColumn id="20" name="Столбец20"/>
+    <tableColumn id="4" name="Столбец22"/>
+    <tableColumn id="5" name="Столбец21"/>
+    <tableColumn id="6" name="Столбец4"/>
+    <tableColumn id="7" name="Столбец5"/>
+    <tableColumn id="8" name="Столбец6"/>
+    <tableColumn id="9" name="Столбец7"/>
+    <tableColumn id="10" name="Столбец8"/>
+    <tableColumn id="11" name="Столбец9"/>
+    <tableColumn id="12" name="Столбец10"/>
+    <tableColumn id="13" name="Столбец11"/>
+    <tableColumn id="14" name="Столбец12"/>
+    <tableColumn id="15" name="Столбец13"/>
+    <tableColumn id="16" name="Столбец14"/>
+    <tableColumn id="17" name="Столбец15"/>
+    <tableColumn id="18" name="Столбец16"/>
+    <tableColumn id="19" name="Столбец17"/>
+    <tableColumn id="20" name="Столбец18"/>
+    <tableColumn id="21" name="Столбец19"/>
+    <tableColumn id="22" name="Столбец20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,784 +839,958 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="11.7109375"/>
     <col bestFit="1" min="2" max="2" width="32.00390625"/>
-    <col bestFit="1" min="3" max="9" width="11.7109375"/>
-    <col bestFit="1" min="10" max="20" width="12.7109375"/>
+    <col bestFit="1" min="3" max="3" width="11.7109375"/>
+    <col min="4" max="5" width="11.7109375"/>
+    <col bestFit="1" min="6" max="11" width="11.7109375"/>
+    <col bestFit="1" min="12" max="22" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
         <v>45315</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>45324</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="A20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="A21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="A22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="A23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
+      <c r="A24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="A26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="A27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="A28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ЛБ-01</t>
   </si>
@@ -21,10 +21,16 @@
     <t>отчет</t>
   </si>
   <si>
+    <t>ЛБ-02</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
     <t>Студент</t>
+  </si>
+  <si>
+    <t>02.02.2024-07.02.2024</t>
   </si>
   <si>
     <t>Столбец1</t>
@@ -315,11 +321,8 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,948 +852,976 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>45315</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>45324</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="A23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="A25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="A27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>ЛБ-01</t>
   </si>
@@ -22,6 +22,9 @@
   </si>
   <si>
     <t>ЛБ-02</t>
+  </si>
+  <si>
+    <t>ЛБ-03</t>
   </si>
   <si>
     <t>№</t>
@@ -259,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -275,6 +278,13 @@
     <font>
       <b/>
       <sz val="11.000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -321,9 +331,12 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -862,966 +875,992 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
         <v>45315</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4">
+        <v>45335</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -902,7 +902,9 @@
       <c r="I2" s="4">
         <v>45335</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <v>45343</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1007,8 +1009,10 @@
         <v>31</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1212,14 +1216,18 @@
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1253,8 +1261,12 @@
       <c r="H11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1290,11 +1302,13 @@
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7" t="s">
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K12" s="6"/>
@@ -1364,9 +1378,15 @@
       <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="H14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1402,9 +1422,13 @@
       <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1477,8 +1501,12 @@
         <v>31</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1505,7 +1533,9 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1568,13 +1598,13 @@
       <c r="G20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="H20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K20" s="6"/>
@@ -1640,9 +1670,13 @@
       <c r="G22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="H22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -1715,8 +1749,10 @@
         <v>31</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="I24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -1749,10 +1785,10 @@
         <v>31</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="I25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K25" s="6"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1387,7 +1387,9 @@
       <c r="J14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>ЛБ-01</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>ЛБ-03</t>
+  </si>
+  <si>
+    <t>ЛБ-04</t>
   </si>
   <si>
     <t>№</t>
@@ -331,12 +334,15 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -848,6 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -881,1026 +888,1042 @@
       <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
         <v>45315</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5">
         <v>45335</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>45343</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5">
+        <v>45349</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>31</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>31</v>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>31</v>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>31</v>
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>31</v>
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1167,7 +1167,9 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1287,7 +1289,9 @@
       <c r="L11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1329,9 +1333,13 @@
       <c r="J12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1815,7 +1823,9 @@
       <c r="L25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -923,7 +923,9 @@
       <c r="L2" s="5">
         <v>45349</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="5">
+        <v>45356</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1167,7 +1169,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="7"/>
@@ -1286,10 +1288,10 @@
         <v>32</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="7"/>
@@ -1333,11 +1335,11 @@
       <c r="J12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N12" s="7"/>
@@ -1782,7 +1784,9 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1820,10 +1824,10 @@
         <v>32</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="L25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N25" s="7"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>ЛБ-01</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>ЛБ-04</t>
+  </si>
+  <si>
+    <t>ЛБ-05</t>
   </si>
   <si>
     <t>№</t>
@@ -895,13 +898,20 @@
       <c r="N1" t="s">
         <v>1</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>45315</v>
@@ -909,7 +919,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -927,7 +937,9 @@
         <v>45356</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="O2" s="5">
+        <v>45357</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -938,104 +950,110 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1046,19 +1064,19 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1067,7 +1085,9 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1078,25 +1098,25 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1116,34 +1136,38 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1154,10 +1178,10 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1170,10 +1194,12 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1184,16 +1210,16 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1216,37 +1242,37 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1262,40 +1288,42 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1306,44 +1334,46 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1354,16 +1384,16 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1375,7 +1405,9 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1386,42 +1418,46 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="N14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1432,38 +1468,42 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1474,23 +1514,23 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1499,7 +1539,9 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1510,38 +1552,40 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1552,10 +1596,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1564,7 +1608,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1582,10 +1626,10 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1610,38 +1654,40 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1652,10 +1698,10 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1680,38 +1726,42 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -1722,34 +1772,38 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -1760,32 +1814,32 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="8" t="s">
-        <v>32</v>
+      <c r="L24" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1800,38 +1854,40 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -1842,10 +1898,10 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1859,7 +1915,9 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -1870,10 +1928,10 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1898,25 +1956,25 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1935,8 +1993,9 @@
       <c r="V28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1038,20 +1038,20 @@
       <c r="G4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P4" s="7"/>
@@ -1085,7 +1085,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="7"/>
@@ -1156,7 +1156,7 @@
       <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="7"/>
@@ -1165,7 +1165,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="7"/>
@@ -1197,7 +1197,7 @@
         <v>33</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="7"/>
@@ -1321,10 +1321,12 @@
         <v>33</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -1371,7 +1373,7 @@
         <v>33</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P12" s="7"/>
@@ -1405,7 +1407,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P13" s="7"/>
@@ -1452,13 +1454,15 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -1495,16 +1499,18 @@
       <c r="J15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -1539,7 +1545,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="7"/>
@@ -1583,7 +1589,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P17" s="7"/>
@@ -1685,7 +1691,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P20" s="7"/>
@@ -1753,13 +1759,13 @@
         <v>33</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P22" s="7"/>
@@ -1792,7 +1798,7 @@
       <c r="G23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="7"/>
@@ -1801,7 +1807,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="7"/>
@@ -1885,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="7"/>
@@ -1915,7 +1921,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P26" s="7"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="0"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>ЛБ-01</t>
   </si>
@@ -33,6 +33,9 @@
     <t>ЛБ-05</t>
   </si>
   <si>
+    <t>ЛБ-06</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
   </si>
   <si>
     <t>02.02.2024-07.02.2024</t>
+  </si>
+  <si>
+    <t>13/03/2024</t>
   </si>
   <si>
     <t>Столбец1</t>
@@ -266,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -337,7 +343,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,9 +355,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -905,13 +910,20 @@
       <c r="Q1" t="s">
         <v>1</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>45315</v>
@@ -919,7 +931,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -942,7 +954,9 @@
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -950,109 +964,109 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1064,19 +1078,19 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1086,7 +1100,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1098,25 +1112,25 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1136,28 +1150,28 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1166,7 +1180,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1178,10 +1192,10 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1194,11 +1208,11 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1210,16 +1224,16 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1242,37 +1256,37 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1288,44 +1302,44 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1336,45 +1350,45 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1386,16 +1400,16 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1408,7 +1422,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1420,48 +1434,48 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1472,44 +1486,44 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1520,23 +1534,23 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1546,7 +1560,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1558,39 +1572,39 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1602,10 +1616,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1614,7 +1628,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1632,10 +1646,10 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1660,39 +1674,39 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -1704,10 +1718,10 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1732,41 +1746,41 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1778,28 +1792,28 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1808,7 +1822,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -1820,32 +1834,32 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1860,39 +1874,39 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -1904,10 +1918,10 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1922,7 +1936,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -1934,10 +1948,10 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1962,25 +1976,25 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1999,9 +2013,10 @@
       <c r="V28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -343,7 +343,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +357,7 @@
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,7 +1105,9 @@
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1216,7 +1219,9 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -1294,7 +1299,9 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -1392,7 +1399,9 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1478,7 +1487,9 @@
         <v>35</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -1526,7 +1537,9 @@
         <v>35</v>
       </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -1710,7 +1723,9 @@
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -1866,7 +1881,9 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="R24" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -1910,7 +1927,9 @@
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1529,7 +1529,9 @@
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
       </c>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1271,10 +1271,14 @@
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="O7" s="9" t="s">
         <v>37</v>
       </c>
@@ -1963,7 +1967,9 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1971,7 +1977,9 @@
         <v>37</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="Q23" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>ЛБ-01</t>
   </si>
@@ -39,6 +39,9 @@
     <t>ЛБ-07</t>
   </si>
   <si>
+    <t>ЛБ-08</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>20/03/2024</t>
+  </si>
+  <si>
+    <t>27/03/2024</t>
   </si>
   <si>
     <t>Столбец1</t>
@@ -374,7 +380,7 @@
         <color theme="1"/>
       </top>
       <bottom style="none"/>
-      <diagonal/>
+      <diagonal style="none"/>
       <vertical style="thin">
         <color theme="1"/>
       </vertical>
@@ -395,7 +401,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
       <vertical style="thin">
         <color theme="1"/>
       </vertical>
@@ -429,9 +435,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,6 +954,7 @@
     <col min="4" max="5" width="11.7109375"/>
     <col bestFit="1" min="6" max="11" width="11.7109375"/>
     <col bestFit="1" min="12" max="22" width="12.7109375"/>
+    <col bestFit="1" min="24" max="24" width="10.54296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -998,13 +1005,17 @@
       <c r="W1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="X1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
         <v>45315</v>
@@ -1012,7 +1023,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1036,149 +1047,152 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="10" t="s">
-        <v>37</v>
+      <c r="U4" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V4" s="9"/>
-      <c r="W4" s="11"/>
+      <c r="W4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1188,43 +1202,43 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="10"/>
+      <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="12"/>
+      <c r="W5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1238,67 +1252,67 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="10" t="s">
-        <v>37</v>
+      <c r="U6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V6" s="9"/>
-      <c r="W6" s="11"/>
+      <c r="W6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="10" t="s">
-        <v>37</v>
+      <c r="K7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="10" t="s">
-        <v>37</v>
+      <c r="N7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="10" t="s">
-        <v>37</v>
+      <c r="U7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V7" s="9"/>
-      <c r="W7" s="12"/>
+      <c r="W7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1311,37 +1325,37 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="10" t="s">
-        <v>37</v>
+      <c r="U8" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V8" s="9"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1361,41 +1375,41 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="12"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -1404,132 +1418,134 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="10" t="s">
-        <v>37</v>
+      <c r="U10" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V10" s="9"/>
-      <c r="W10" s="11"/>
+      <c r="W10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="V11" s="9"/>
-      <c r="W11" s="12"/>
+      <c r="W11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="10" t="s">
-        <v>37</v>
+      <c r="U12" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V12" s="9"/>
-      <c r="W12" s="11"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1542,7 +1558,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -1551,139 +1567,139 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="12"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="10" t="s">
-        <v>37</v>
+      <c r="U14" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V14" s="9"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="10" t="s">
-        <v>37</v>
+      <c r="U15" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V15" s="9"/>
-      <c r="W15" s="12"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1693,7 +1709,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -1702,61 +1718,61 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="11"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="10" t="s">
-        <v>37</v>
+      <c r="U17" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V17" s="9"/>
-      <c r="W17" s="12"/>
+      <c r="W17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1765,7 +1781,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1780,14 +1796,14 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="11"/>
+      <c r="W18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1809,63 +1825,63 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="12"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="10" t="s">
-        <v>37</v>
+      <c r="U20" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V20" s="9"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1887,136 +1903,136 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="12"/>
+      <c r="W21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="10" t="s">
-        <v>37</v>
+      <c r="N22" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="10" t="s">
-        <v>37</v>
+      <c r="U22" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V22" s="9"/>
-      <c r="W22" s="11"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="10" t="s">
-        <v>37</v>
+      <c r="K23" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="10" t="s">
-        <v>37</v>
+      <c r="Q23" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-      <c r="U23" s="10" t="s">
-        <v>37</v>
+      <c r="U23" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V23" s="9"/>
-      <c r="W23" s="12"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -2024,71 +2040,71 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="10" t="s">
-        <v>37</v>
+      <c r="U24" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V24" s="9"/>
-      <c r="W24" s="11"/>
+      <c r="W24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
-      <c r="U25" s="10" t="s">
-        <v>37</v>
+      <c r="U25" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V25" s="9"/>
-      <c r="W25" s="12"/>
+      <c r="W25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2103,7 +2119,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -2112,14 +2128,14 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="11"/>
+      <c r="W26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2141,32 +2157,32 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="12"/>
+      <c r="W27" s="11"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2180,18 +2196,19 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
-      <c r="U28" s="10" t="s">
-        <v>37</v>
+      <c r="U28" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="V28" s="9"/>
-      <c r="W28" s="11"/>
+      <c r="W28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1476,7 +1476,9 @@
       <c r="U11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="9"/>
+      <c r="V11" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="W11" s="11"/>
     </row>
     <row r="12">

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -284,7 +284,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -414,7 +414,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,7 +429,7 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
@@ -437,7 +437,6 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,6 +1213,9 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="11"/>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -1343,6 +1345,9 @@
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="10"/>
+      <c r="X8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
@@ -1427,6 +1432,9 @@
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="10"/>
+      <c r="X10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
@@ -1473,10 +1481,10 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="12" t="s">
+      <c r="U11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="W11" s="11"/>
@@ -1570,6 +1578,9 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="11"/>
+      <c r="X13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
@@ -1627,6 +1638,9 @@
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="10"/>
+      <c r="X14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
@@ -1682,6 +1696,9 @@
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="11"/>
+      <c r="X15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
@@ -1768,6 +1785,9 @@
       </c>
       <c r="V17" s="9"/>
       <c r="W17" s="11"/>
+      <c r="X17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
@@ -1877,6 +1897,9 @@
       </c>
       <c r="V20" s="9"/>
       <c r="W20" s="10"/>
+      <c r="X20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
@@ -2051,6 +2074,9 @@
       </c>
       <c r="V24" s="9"/>
       <c r="W24" s="10"/>
+      <c r="X24" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
@@ -2100,6 +2126,9 @@
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="11"/>
+      <c r="X25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -414,7 +414,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,6 +430,7 @@
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
@@ -954,6 +955,7 @@
     <col bestFit="1" min="6" max="11" width="11.7109375"/>
     <col bestFit="1" min="12" max="22" width="12.7109375"/>
     <col bestFit="1" min="24" max="24" width="10.54296875"/>
+    <col bestFit="1" min="25" max="25" width="10.08203125"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1008,6 +1010,9 @@
         <v>8</v>
       </c>
       <c r="Y1" s="2"/>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -1058,6 +1063,9 @@
       <c r="X2" t="s">
         <v>14</v>
       </c>
+      <c r="Y2" s="7">
+        <v>45384</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1069,10 +1077,10 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
@@ -1126,1112 +1134,1127 @@
       <c r="V3" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="8"/>
+      <c r="W3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="12"/>
       <c r="X5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="W6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="10"/>
+      <c r="W7" s="12"/>
+      <c r="X7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="10"/>
+      <c r="W8" s="11"/>
       <c r="X8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="10"/>
+      <c r="W10" s="11"/>
       <c r="X10" t="s">
         <v>39</v>
       </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="11"/>
+      <c r="X12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="11"/>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="12"/>
       <c r="X13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="10"/>
+      <c r="W14" s="11"/>
       <c r="X14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="11"/>
+      <c r="C15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="12"/>
       <c r="X15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="11"/>
+      <c r="C17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="10"/>
+      <c r="W17" s="12"/>
       <c r="X17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="12"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="10"/>
+      <c r="W20" s="11"/>
       <c r="X20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="11"/>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="10"/>
+      <c r="W23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
       <c r="X24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="12"/>
       <c r="X25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="12"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" s="9"/>
-      <c r="W28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="10"/>
+      <c r="W28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -414,7 +414,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,7 +430,6 @@
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
@@ -954,8 +953,7 @@
     <col min="4" max="5" width="11.7109375"/>
     <col bestFit="1" min="6" max="11" width="11.7109375"/>
     <col bestFit="1" min="12" max="22" width="12.7109375"/>
-    <col bestFit="1" min="24" max="24" width="10.54296875"/>
-    <col bestFit="1" min="25" max="25" width="10.08203125"/>
+    <col bestFit="1" min="24" max="25" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1060,12 +1058,13 @@
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" t="s">
+      <c r="X2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="6">
         <v>45384</v>
       </c>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1077,10 +1076,10 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
@@ -1134,1127 +1133,1188 @@
       <c r="V3" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="9"/>
+      <c r="W3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="11"/>
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="12"/>
-      <c r="X5" t="s">
-        <v>39</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="10"/>
-      <c r="W6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="12"/>
-      <c r="X7" t="s">
-        <v>39</v>
-      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="11"/>
-      <c r="X8" t="s">
-        <v>39</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="12"/>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
-      <c r="X10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>39</v>
-      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="11"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
-      <c r="X12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="12"/>
-      <c r="X13" t="s">
-        <v>39</v>
-      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
-      <c r="X14" t="s">
-        <v>39</v>
-      </c>
+      <c r="C14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="12"/>
-      <c r="X15" t="s">
-        <v>39</v>
-      </c>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="11"/>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="12"/>
-      <c r="X17" t="s">
-        <v>39</v>
-      </c>
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
-      <c r="X20" t="s">
-        <v>39</v>
-      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11"/>
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V23" s="10"/>
-      <c r="W23" s="12"/>
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V24" s="10"/>
-      <c r="W24" s="11"/>
-      <c r="X24" t="s">
-        <v>39</v>
-      </c>
+      <c r="C24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V25" s="10"/>
-      <c r="W25" s="12"/>
-      <c r="X25" t="s">
-        <v>39</v>
-      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="11"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" s="10"/>
-      <c r="W28" s="11"/>
+      <c r="C28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -414,7 +414,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,8 +435,10 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,7 +1172,9 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="O4" s="9" t="s">
         <v>39</v>
       </c>
@@ -1183,10 +1187,10 @@
         <v>39</v>
       </c>
       <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="10"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -1223,12 +1227,12 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="11"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="11"/>
+      <c r="Z5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -1257,7 +1261,9 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1271,10 +1277,10 @@
         <v>39</v>
       </c>
       <c r="V6" s="9"/>
-      <c r="W6" s="10"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -1323,12 +1329,12 @@
         <v>39</v>
       </c>
       <c r="V7" s="9"/>
-      <c r="W7" s="11"/>
+      <c r="W7" s="12"/>
       <c r="X7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="11"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -1365,12 +1371,12 @@
         <v>39</v>
       </c>
       <c r="V8" s="9"/>
-      <c r="W8" s="10"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="10"/>
+      <c r="Z8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
@@ -1385,16 +1391,24 @@
       <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -1403,10 +1417,10 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="11"/>
+      <c r="W9" s="12"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="11"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
@@ -1457,14 +1471,16 @@
         <v>39</v>
       </c>
       <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="11"/>
       <c r="X10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="10"/>
+      <c r="Z10" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
@@ -1517,10 +1533,10 @@
       <c r="V11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="11"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="11"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -1575,14 +1591,14 @@
         <v>39</v>
       </c>
       <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="10" t="s">
+      <c r="Z12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1599,16 +1615,24 @@
       <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="O13" s="9" t="s">
         <v>39</v>
       </c>
@@ -1619,12 +1643,12 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="11"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="11"/>
+      <c r="Z13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
@@ -1681,12 +1705,12 @@
         <v>39</v>
       </c>
       <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="11"/>
       <c r="X14" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="10"/>
+      <c r="Z14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
@@ -1741,12 +1765,12 @@
         <v>39</v>
       </c>
       <c r="V15" s="9"/>
-      <c r="W15" s="11"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
@@ -1785,10 +1809,10 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="10"/>
+      <c r="W16" s="11"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="10"/>
+      <c r="Z16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
@@ -1835,12 +1859,12 @@
         <v>39</v>
       </c>
       <c r="V17" s="9"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="11"/>
+      <c r="Z17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
@@ -1871,10 +1895,10 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="10"/>
+      <c r="Z18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
@@ -1903,10 +1927,10 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="11"/>
+      <c r="W19" s="12"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
@@ -1955,12 +1979,12 @@
         <v>39</v>
       </c>
       <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
+      <c r="W20" s="11"/>
       <c r="X20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="10"/>
+      <c r="Z20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
@@ -1989,10 +2013,10 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="11"/>
+      <c r="W21" s="12"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="11"/>
+      <c r="Z21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
@@ -2043,10 +2067,10 @@
         <v>39</v>
       </c>
       <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="11"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="10"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
@@ -2095,10 +2119,10 @@
         <v>39</v>
       </c>
       <c r="V23" s="9"/>
-      <c r="W23" s="11"/>
+      <c r="W23" s="12"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="11"/>
+      <c r="Z23" s="12"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
@@ -2143,12 +2167,12 @@
         <v>39</v>
       </c>
       <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="11"/>
       <c r="X24" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
+      <c r="Z24" s="11"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
@@ -2197,12 +2221,12 @@
         <v>39</v>
       </c>
       <c r="V25" s="9"/>
-      <c r="W25" s="11"/>
+      <c r="W25" s="12"/>
       <c r="X25" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="11"/>
+      <c r="Z25" s="12"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
@@ -2213,16 +2237,26 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="N26" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="O26" s="9" t="s">
         <v>39</v>
       </c>
@@ -2233,10 +2267,10 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
+      <c r="W26" s="11"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="10"/>
+      <c r="Z26" s="11"/>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
@@ -2265,10 +2299,10 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="11"/>
+      <c r="W27" s="12"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="11"/>
+      <c r="Z27" s="12"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="9" t="s">
@@ -2297,7 +2331,9 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="K28" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2311,10 +2347,10 @@
         <v>39</v>
       </c>
       <c r="V28" s="9"/>
-      <c r="W28" s="10"/>
+      <c r="W28" s="11"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="10"/>
+      <c r="Z28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
+++ b/2024/Учебный журнал. Успеваемость (2Д02). Системный анализ процессов переработки нефти и газа. Весна 2023_24. 24.01.2024.xlsx
@@ -414,7 +414,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,10 +435,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,7 +1171,7 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="O4" s="9" t="s">
@@ -1187,10 +1186,10 @@
         <v>39</v>
       </c>
       <c r="V4" s="9"/>
-      <c r="W4" s="11"/>
+      <c r="W4" s="10"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="11"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -1227,12 +1226,12 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="12"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="12"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
@@ -1261,7 +1260,7 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L6" s="9"/>
@@ -1277,10 +1276,10 @@
         <v>39</v>
       </c>
       <c r="V6" s="9"/>
-      <c r="W6" s="11"/>
+      <c r="W6" s="10"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="11"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
@@ -1329,12 +1328,12 @@
         <v>39</v>
       </c>
       <c r="V7" s="9"/>
-      <c r="W7" s="12"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="12"/>
+      <c r="Z7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -1371,12 +1370,12 @@
         <v>39</v>
       </c>
       <c r="V8" s="9"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="10"/>
       <c r="X8" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="11"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
@@ -1391,22 +1390,22 @@
       <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="O9" s="9"/>
@@ -1417,10 +1416,10 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="12"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="12"/>
+      <c r="Z9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
@@ -1471,14 +1470,14 @@
         <v>39</v>
       </c>
       <c r="V10" s="9"/>
-      <c r="W10" s="11"/>
+      <c r="W10" s="10"/>
       <c r="X10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1533,10 +1532,10 @@
       <c r="V11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="12"/>
+      <c r="W11" s="11"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="12"/>
+      <c r="Z11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
@@ -1591,14 +1590,14 @@
         <v>39</v>
       </c>
       <c r="V12" s="9"/>
-      <c r="W12" s="11"/>
+      <c r="W12" s="10"/>
       <c r="X12" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1615,22 +1614,22 @@
       <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="O13" s="9" t="s">
@@ -1643,12 +1642,12 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="12"/>
+      <c r="W13" s="11"/>
       <c r="X13" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="12"/>
+      <c r="Z13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
@@ -1705,12 +1704,12 @@
         <v>39</v>
       </c>
       <c r="V14" s="9"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="10"/>
       <c r="X14" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="11"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
@@ -1765,12 +1764,12 @@
         <v>39</v>
       </c>
       <c r="V15" s="9"/>
-      <c r="W15" s="12"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="12"/>
+      <c r="Z15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
@@ -1785,17 +1784,23 @@
       <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1809,10 +1814,10 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="11"/>
+      <c r="W16" s="10"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="11"/>
+      <c r="Z16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
@@ -1859,12 +1864,12 @@
         <v>39</v>
       </c>
       <c r="V17" s="9"/>
-      <c r="W17" s="12"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="12"/>
+      <c r="Z17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
@@ -1895,10 +1900,10 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="11"/>
+      <c r="W18" s="10"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="11"/>
+      <c r="Z18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
@@ -1927,10 +1932,10 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="12"/>
+      <c r="W19" s="11"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="12"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
@@ -1979,12 +1984,12 @@
         <v>39</v>
       </c>
       <c r="V20" s="9"/>
-      <c r="W20" s="11"/>
+      <c r="W20" s="10"/>
       <c r="X20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="11"/>
+      <c r="Z20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
@@ -2013,10 +2018,10 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="12"/>
+      <c r="W21" s="11"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="12"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
@@ -2067,10 +2072,10 @@
         <v>39</v>
       </c>
       <c r="V22" s="9"/>
-      <c r="W22" s="11"/>
+      <c r="W22" s="10"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="11"/>
+      <c r="Z22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
@@ -2119,10 +2124,10 @@
         <v>39</v>
       </c>
       <c r="V23" s="9"/>
-      <c r="W23" s="12"/>
+      <c r="W23" s="11"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="12"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
@@ -2167,12 +2172,12 @@
         <v>39</v>
       </c>
       <c r="V24" s="9"/>
-      <c r="W24" s="11"/>
+      <c r="W24" s="10"/>
       <c r="X24" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="11"/>
+      <c r="Z24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
@@ -2221,12 +2226,12 @@
         <v>39</v>
       </c>
       <c r="V25" s="9"/>
-      <c r="W25" s="12"/>
+      <c r="W25" s="11"/>
       <c r="X25" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="12"/>
+      <c r="Z25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
@@ -2237,24 +2242,24 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="10" t="s">
+      <c r="J26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="O26" s="9" t="s">
@@ -2267,10 +2272,10 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="11"/>
+      <c r="W26" s="10"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="11"/>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
@@ -2299,10 +2304,10 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="12"/>
+      <c r="W27" s="11"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="12"/>
+      <c r="Z27" s="11"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="9" t="s">
@@ -2331,7 +2336,7 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L28" s="9"/>
@@ -2347,10 +2352,10 @@
         <v>39</v>
       </c>
       <c r="V28" s="9"/>
-      <c r="W28" s="11"/>
+      <c r="W28" s="10"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="11"/>
+      <c r="Z28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
